--- a/CableReference.xlsx
+++ b/CableReference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmarshall\source\BlueMachinePLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EED70E-E3A3-4CDC-9F67-308A6A702A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A3281A-CC0E-498D-BC03-270CF559FD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9878701F-A182-42B2-871A-56767D7A75BE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="462">
   <si>
     <t>Stacker Output Orange/Blue Bus</t>
   </si>
@@ -1423,6 +1423,15 @@
   </si>
   <si>
     <t>Tape Glue Motor</t>
+  </si>
+  <si>
+    <t>End Seal Manual</t>
+  </si>
+  <si>
+    <t>Glue Heat On</t>
+  </si>
+  <si>
+    <t>Glue Heat Off</t>
   </si>
 </sst>
 </file>
@@ -1702,6 +1711,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1729,7 +1739,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2297,18 +2306,18 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="I3" s="42" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="I3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3241,18 +3250,18 @@
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="I37" s="42" t="s">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="I37" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -4084,20 +4093,20 @@
       <c r="L70" s="10"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="I71" s="42" t="s">
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="I71" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -4853,18 +4862,18 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="I3" s="42" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="I3" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -5721,26 +5730,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
       <c r="L2" s="19"/>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>238</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -5755,7 +5764,7 @@
       <c r="F3" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="48" t="s">
         <v>239</v>
       </c>
       <c r="I3" t="s">
@@ -5778,7 +5787,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="23" t="s">
         <v>48</v>
       </c>
@@ -5791,7 +5800,7 @@
       <c r="F4" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="49"/>
       <c r="I4" t="s">
         <v>143</v>
       </c>
@@ -5812,7 +5821,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
@@ -5825,7 +5834,7 @@
       <c r="F5" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="48"/>
+      <c r="H5" s="49"/>
       <c r="I5" t="s">
         <v>74</v>
       </c>
@@ -5846,7 +5855,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="24" t="s">
         <v>50</v>
       </c>
@@ -5859,7 +5868,7 @@
       <c r="F6" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="49"/>
       <c r="I6" t="s">
         <v>146</v>
       </c>
@@ -5880,7 +5889,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="23" t="s">
         <v>130</v>
       </c>
@@ -5893,7 +5902,7 @@
       <c r="F7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="49"/>
       <c r="I7" t="s">
         <v>77</v>
       </c>
@@ -5907,7 +5916,7 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="23" t="s">
         <v>131</v>
       </c>
@@ -5920,7 +5929,7 @@
       <c r="F8" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="I8" t="s">
         <v>79</v>
       </c>
@@ -5930,14 +5939,14 @@
       <c r="L8" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="49"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="23" t="s">
         <v>82</v>
       </c>
@@ -5950,7 +5959,7 @@
       <c r="F9" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H9" s="48"/>
+      <c r="H9" s="49"/>
       <c r="I9" t="s">
         <v>120</v>
       </c>
@@ -5971,7 +5980,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="23" t="s">
         <v>81</v>
       </c>
@@ -5984,7 +5993,7 @@
       <c r="F10" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="48"/>
+      <c r="H10" s="49"/>
       <c r="I10" t="s">
         <v>119</v>
       </c>
@@ -6005,7 +6014,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="23" t="s">
         <v>47</v>
       </c>
@@ -6018,7 +6027,7 @@
       <c r="F11" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="I11" t="s">
         <v>121</v>
       </c>
@@ -6039,7 +6048,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="23" t="s">
         <v>52</v>
       </c>
@@ -6052,7 +6061,7 @@
       <c r="F12" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="48"/>
+      <c r="H12" s="49"/>
       <c r="I12" t="s">
         <v>122</v>
       </c>
@@ -6073,7 +6082,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="23" t="s">
         <v>125</v>
       </c>
@@ -6086,7 +6095,7 @@
       <c r="F13" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="48"/>
+      <c r="H13" s="49"/>
       <c r="I13" t="s">
         <v>208</v>
       </c>
@@ -6098,7 +6107,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="27" t="s">
         <v>124</v>
       </c>
@@ -6111,7 +6120,7 @@
       <c r="F14" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="H14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="I14" t="s">
         <v>123</v>
       </c>
@@ -6123,7 +6132,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="27" t="s">
         <v>164</v>
       </c>
@@ -6138,7 +6147,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="27" t="s">
         <v>165</v>
       </c>
@@ -6153,7 +6162,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="27" t="s">
         <v>71</v>
       </c>
@@ -6166,7 +6175,7 @@
       <c r="F17" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="48" t="s">
         <v>253</v>
       </c>
       <c r="I17" t="s">
@@ -6180,7 +6189,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="28" t="s">
         <v>71</v>
       </c>
@@ -6193,7 +6202,7 @@
       <c r="F18" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="48"/>
+      <c r="H18" s="49"/>
       <c r="I18" t="s">
         <v>217</v>
       </c>
@@ -6205,7 +6214,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H19" s="48"/>
+      <c r="H19" s="49"/>
       <c r="I19" t="s">
         <v>218</v>
       </c>
@@ -6220,7 +6229,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="48"/>
+      <c r="H20" s="49"/>
       <c r="I20" t="s">
         <v>219</v>
       </c>
@@ -6235,7 +6244,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -6250,7 +6259,7 @@
       <c r="F21" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="H21" s="48"/>
+      <c r="H21" s="49"/>
       <c r="I21" t="s">
         <v>256</v>
       </c>
@@ -6268,7 +6277,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="27" t="s">
         <v>71</v>
       </c>
@@ -6281,7 +6290,7 @@
       <c r="F22" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="H22" s="48"/>
+      <c r="H22" s="49"/>
       <c r="I22" t="s">
         <v>257</v>
       </c>
@@ -6299,7 +6308,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="23" t="s">
         <v>71</v>
       </c>
@@ -6312,7 +6321,7 @@
       <c r="F23" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="H23" s="48"/>
+      <c r="H23" s="49"/>
       <c r="I23" t="s">
         <v>258</v>
       </c>
@@ -6330,7 +6339,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="23" t="s">
         <v>71</v>
       </c>
@@ -6343,7 +6352,7 @@
       <c r="F24" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="H24" s="48"/>
+      <c r="H24" s="49"/>
       <c r="I24" t="s">
         <v>259</v>
       </c>
@@ -6361,7 +6370,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="23" t="s">
         <v>71</v>
       </c>
@@ -6374,7 +6383,7 @@
       <c r="F25" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="H25" s="48"/>
+      <c r="H25" s="49"/>
       <c r="I25" t="s">
         <v>260</v>
       </c>
@@ -6392,7 +6401,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="23" t="s">
         <v>71</v>
       </c>
@@ -6405,7 +6414,7 @@
       <c r="F26" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="H26" s="48"/>
+      <c r="H26" s="49"/>
       <c r="I26" t="s">
         <v>261</v>
       </c>
@@ -6423,7 +6432,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="23" t="s">
         <v>71</v>
       </c>
@@ -6436,7 +6445,7 @@
       <c r="F27" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" t="s">
         <v>262</v>
       </c>
@@ -6454,7 +6463,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="23" t="s">
         <v>71</v>
       </c>
@@ -6467,7 +6476,7 @@
       <c r="F28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28" t="s">
         <v>263</v>
       </c>
@@ -6485,7 +6494,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="23" t="s">
         <v>71</v>
       </c>
@@ -6506,7 +6515,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="23"/>
       <c r="D30" t="s">
         <v>61</v>
@@ -6522,7 +6531,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="23"/>
       <c r="D31" t="s">
         <v>53</v>
@@ -6530,7 +6539,7 @@
       <c r="F31" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="48" t="s">
         <v>264</v>
       </c>
       <c r="I31" t="s">
@@ -6550,7 +6559,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="48"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="23"/>
       <c r="D32" t="s">
         <v>236</v>
@@ -6558,7 +6567,7 @@
       <c r="F32" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="H32" s="48"/>
+      <c r="H32" s="49"/>
       <c r="I32" t="s">
         <v>266</v>
       </c>
@@ -6574,7 +6583,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="23"/>
       <c r="D33" t="s">
         <v>65</v>
@@ -6582,7 +6591,7 @@
       <c r="F33" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="H33" s="48"/>
+      <c r="H33" s="49"/>
       <c r="I33" t="s">
         <v>267</v>
       </c>
@@ -6600,13 +6609,13 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="23"/>
       <c r="D34" t="s">
         <v>268</v>
       </c>
       <c r="F34" s="14"/>
-      <c r="H34" s="48"/>
+      <c r="H34" s="49"/>
       <c r="I34" t="s">
         <v>269</v>
       </c>
@@ -6624,13 +6633,13 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="23"/>
       <c r="D35" t="s">
         <v>270</v>
       </c>
       <c r="F35" s="14"/>
-      <c r="H35" s="48"/>
+      <c r="H35" s="49"/>
       <c r="I35" t="s">
         <v>271</v>
       </c>
@@ -6645,14 +6654,14 @@
       </c>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="48"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="33"/>
       <c r="D36" s="34" t="s">
         <v>272</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="35"/>
-      <c r="H36" s="48"/>
+      <c r="H36" s="49"/>
       <c r="I36" t="s">
         <v>273</v>
       </c>
@@ -6664,7 +6673,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" t="s">
         <v>274</v>
       </c>
@@ -6682,7 +6691,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H38" s="48"/>
+      <c r="H38" s="49"/>
       <c r="I38" t="s">
         <v>275</v>
       </c>
@@ -6700,7 +6709,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>276</v>
       </c>
       <c r="C39" s="20" t="s">
@@ -6715,7 +6724,7 @@
       <c r="F39" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="48"/>
+      <c r="H39" s="49"/>
       <c r="I39" t="s">
         <v>277</v>
       </c>
@@ -6733,7 +6742,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="48"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="23" t="s">
         <v>71</v>
       </c>
@@ -6746,7 +6755,7 @@
       <c r="F40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="48"/>
+      <c r="H40" s="49"/>
       <c r="I40" t="s">
         <v>278</v>
       </c>
@@ -6758,7 +6767,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="48"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="23" t="s">
         <v>71</v>
       </c>
@@ -6771,7 +6780,7 @@
       <c r="F41" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="48"/>
+      <c r="H41" s="49"/>
       <c r="I41" t="s">
         <v>280</v>
       </c>
@@ -6783,7 +6792,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="23" t="s">
         <v>71</v>
       </c>
@@ -6796,7 +6805,7 @@
       <c r="F42" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="48"/>
+      <c r="H42" s="49"/>
       <c r="I42" t="s">
         <v>282</v>
       </c>
@@ -6808,7 +6817,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="48"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="23" t="s">
         <v>71</v>
       </c>
@@ -6829,7 +6838,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="48"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="23" t="s">
         <v>71</v>
       </c>
@@ -6850,7 +6859,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="48"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="23" t="s">
         <v>71</v>
       </c>
@@ -6863,7 +6872,7 @@
       <c r="F45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="48" t="s">
         <v>286</v>
       </c>
       <c r="I45" t="s">
@@ -6883,7 +6892,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="48"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="23" t="s">
         <v>71</v>
       </c>
@@ -6896,7 +6905,7 @@
       <c r="F46" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="47"/>
+      <c r="H46" s="48"/>
       <c r="I46" t="s">
         <v>26</v>
       </c>
@@ -6914,7 +6923,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="23" t="s">
         <v>71</v>
       </c>
@@ -6927,7 +6936,7 @@
       <c r="F47" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="47"/>
+      <c r="H47" s="48"/>
       <c r="I47" t="s">
         <v>73</v>
       </c>
@@ -6945,7 +6954,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="23"/>
       <c r="D48" t="s">
         <v>289</v>
@@ -6956,7 +6965,7 @@
       <c r="F48" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="47"/>
+      <c r="H48" s="48"/>
       <c r="I48" t="s">
         <v>230</v>
       </c>
@@ -6974,7 +6983,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="23"/>
       <c r="D49" t="s">
         <v>290</v>
@@ -6985,7 +6994,7 @@
       <c r="F49" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="47"/>
+      <c r="H49" s="48"/>
       <c r="I49" t="s">
         <v>129</v>
       </c>
@@ -7003,7 +7012,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="48"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="23"/>
       <c r="D50" t="s">
         <v>291</v>
@@ -7014,7 +7023,7 @@
       <c r="F50" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="47"/>
+      <c r="H50" s="48"/>
       <c r="I50" t="s">
         <v>184</v>
       </c>
@@ -7032,7 +7041,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="48"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="23"/>
       <c r="D51" t="s">
         <v>292</v>
@@ -7043,7 +7052,7 @@
       <c r="F51" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H51" s="47"/>
+      <c r="H51" s="48"/>
       <c r="I51" t="s">
         <v>57</v>
       </c>
@@ -7061,7 +7070,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="48"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="23"/>
       <c r="D52" t="s">
         <v>293</v>
@@ -7072,7 +7081,7 @@
       <c r="F52" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="47"/>
+      <c r="H52" s="48"/>
       <c r="I52" t="s">
         <v>60</v>
       </c>
@@ -7090,7 +7099,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="48"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="23"/>
       <c r="D53" t="s">
         <v>294</v>
@@ -7101,7 +7110,7 @@
       <c r="F53" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="47"/>
+      <c r="H53" s="48"/>
       <c r="I53" t="s">
         <v>58</v>
       </c>
@@ -7119,7 +7128,7 @@
       </c>
     </row>
     <row r="54" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="48"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="33"/>
       <c r="D54" s="34" t="s">
         <v>295</v>
@@ -7130,7 +7139,7 @@
       <c r="F54" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="47"/>
+      <c r="H54" s="48"/>
       <c r="I54" t="s">
         <v>59</v>
       </c>
@@ -7148,7 +7157,7 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H55" s="47"/>
+      <c r="H55" s="48"/>
       <c r="I55" t="s">
         <v>28</v>
       </c>
@@ -7166,7 +7175,7 @@
       </c>
     </row>
     <row r="56" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H56" s="47"/>
+      <c r="H56" s="48"/>
       <c r="I56" t="s">
         <v>45</v>
       </c>
@@ -7184,7 +7193,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="48" t="s">
         <v>296</v>
       </c>
       <c r="C57" s="20" t="s">
@@ -7199,7 +7208,7 @@
       <c r="F57" t="s">
         <v>153</v>
       </c>
-      <c r="H57" s="47"/>
+      <c r="H57" s="48"/>
       <c r="I57" t="s">
         <v>128</v>
       </c>
@@ -7217,7 +7226,7 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="48"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="23" t="s">
         <v>71</v>
       </c>
@@ -7230,7 +7239,7 @@
       <c r="F58" t="s">
         <v>154</v>
       </c>
-      <c r="H58" s="47"/>
+      <c r="H58" s="48"/>
       <c r="I58" t="s">
         <v>231</v>
       </c>
@@ -7248,7 +7257,7 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="48"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="23" t="s">
         <v>71</v>
       </c>
@@ -7261,7 +7270,7 @@
       <c r="F59" t="s">
         <v>196</v>
       </c>
-      <c r="H59" s="47"/>
+      <c r="H59" s="48"/>
       <c r="I59" t="s">
         <v>93</v>
       </c>
@@ -7279,7 +7288,7 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="48"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="23" t="s">
         <v>71</v>
       </c>
@@ -7292,7 +7301,7 @@
       <c r="F60" t="s">
         <v>203</v>
       </c>
-      <c r="H60" s="47"/>
+      <c r="H60" s="48"/>
       <c r="I60" t="s">
         <v>91</v>
       </c>
@@ -7304,7 +7313,7 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="48"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="23" t="s">
         <v>71</v>
       </c>
@@ -7319,7 +7328,7 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="48"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="23" t="s">
         <v>71</v>
       </c>
@@ -7334,7 +7343,7 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="48"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="23" t="s">
         <v>71</v>
       </c>
@@ -7349,7 +7358,7 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="48"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="23" t="s">
         <v>71</v>
       </c>
@@ -7364,7 +7373,7 @@
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="48"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="23" t="s">
         <v>71</v>
       </c>
@@ -7385,7 +7394,7 @@
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="48"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="23"/>
       <c r="D66" t="s">
         <v>306</v>
@@ -7398,7 +7407,7 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="48"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="23"/>
       <c r="D67" t="s">
         <v>307</v>
@@ -7417,7 +7426,7 @@
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="48"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="23"/>
       <c r="D68" t="s">
         <v>308</v>
@@ -7430,7 +7439,7 @@
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="48"/>
+      <c r="B69" s="49"/>
       <c r="C69" s="23"/>
       <c r="D69" t="s">
         <v>309</v>
@@ -7449,7 +7458,7 @@
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="48"/>
+      <c r="B70" s="49"/>
       <c r="C70" s="23"/>
       <c r="D70" t="s">
         <v>310</v>
@@ -7462,7 +7471,7 @@
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="48"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="23"/>
       <c r="D71" t="s">
         <v>311</v>
@@ -7475,7 +7484,7 @@
       </c>
     </row>
     <row r="72" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="48"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="33"/>
       <c r="D72" s="34" t="s">
         <v>312</v>
@@ -7645,8 +7654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E30951-EC49-4138-A2A1-C44D690BBD74}">
   <dimension ref="B2:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7666,14 +7675,14 @@
         <v>169</v>
       </c>
       <c r="I2" s="37"/>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>238</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -7683,7 +7692,7 @@
         <v>155</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="48" t="s">
         <v>239</v>
       </c>
       <c r="H3" t="s">
@@ -7703,7 +7712,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" t="s">
         <v>48</v>
       </c>
@@ -7711,7 +7720,7 @@
         <v>126</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="G4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" t="s">
         <v>143</v>
       </c>
@@ -7729,7 +7738,7 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" t="s">
         <v>49</v>
       </c>
@@ -7737,7 +7746,7 @@
         <v>156</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="G5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" t="s">
         <v>74</v>
       </c>
@@ -7755,7 +7764,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" t="s">
         <v>50</v>
       </c>
@@ -7763,7 +7772,7 @@
         <v>158</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="G6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" t="s">
         <v>146</v>
       </c>
@@ -7781,7 +7790,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" t="s">
         <v>130</v>
       </c>
@@ -7789,7 +7798,7 @@
         <v>140</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="G7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="H7" t="s">
         <v>77</v>
       </c>
@@ -7800,7 +7809,7 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" t="s">
         <v>131</v>
       </c>
@@ -7808,21 +7817,21 @@
         <v>159</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="G8" s="48"/>
+      <c r="G8" s="49"/>
       <c r="H8" t="s">
         <v>79</v>
       </c>
       <c r="I8" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="49"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" t="s">
         <v>82</v>
       </c>
@@ -7830,7 +7839,7 @@
         <v>160</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="49"/>
       <c r="H9" t="s">
         <v>120</v>
       </c>
@@ -7848,7 +7857,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" t="s">
         <v>81</v>
       </c>
@@ -7856,7 +7865,7 @@
         <v>161</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="G10" s="48"/>
+      <c r="G10" s="49"/>
       <c r="H10" t="s">
         <v>119</v>
       </c>
@@ -7874,7 +7883,7 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" t="s">
         <v>47</v>
       </c>
@@ -7882,7 +7891,7 @@
         <v>162</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="G11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="H11" t="s">
         <v>121</v>
       </c>
@@ -7897,7 +7906,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
+      <c r="B12" s="47"/>
       <c r="C12" t="s">
         <v>52</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>163</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="G12" s="48"/>
+      <c r="G12" s="49"/>
       <c r="H12" t="s">
         <v>122</v>
       </c>
@@ -7923,7 +7932,7 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" t="s">
         <v>125</v>
       </c>
@@ -7931,7 +7940,7 @@
         <v>251</v>
       </c>
       <c r="E13" s="16"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="49"/>
       <c r="H13" t="s">
         <v>208</v>
       </c>
@@ -7943,7 +7952,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="25" t="s">
         <v>124</v>
       </c>
@@ -7951,7 +7960,7 @@
         <v>213</v>
       </c>
       <c r="E14" s="16"/>
-      <c r="G14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="H14" t="s">
         <v>123</v>
       </c>
@@ -7963,7 +7972,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="25" t="s">
         <v>164</v>
       </c>
@@ -7973,7 +7982,7 @@
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="25" t="s">
         <v>165</v>
       </c>
@@ -7983,7 +7992,7 @@
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="25" t="s">
         <v>252</v>
       </c>
@@ -7991,7 +8000,7 @@
         <v>71</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="48" t="s">
         <v>253</v>
       </c>
       <c r="H17" t="s">
@@ -8002,7 +8011,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="29" t="s">
         <v>254</v>
       </c>
@@ -8010,7 +8019,7 @@
         <v>71</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" t="s">
         <v>217</v>
       </c>
@@ -8019,7 +8028,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" t="s">
         <v>218</v>
       </c>
@@ -8037,7 +8046,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="H20" t="s">
         <v>219</v>
       </c>
@@ -8056,7 +8065,7 @@
       <c r="N20" s="40"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="32" t="s">
@@ -8066,7 +8075,7 @@
         <v>373</v>
       </c>
       <c r="E21" s="16"/>
-      <c r="G21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" t="s">
         <v>256</v>
       </c>
@@ -8081,7 +8090,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="25" t="s">
         <v>136</v>
       </c>
@@ -8089,7 +8098,7 @@
         <v>374</v>
       </c>
       <c r="E22" s="16"/>
-      <c r="G22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" t="s">
         <v>257</v>
       </c>
@@ -8104,7 +8113,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
+      <c r="B23" s="49"/>
       <c r="C23" t="s">
         <v>51</v>
       </c>
@@ -8112,7 +8121,7 @@
         <v>375</v>
       </c>
       <c r="E23" s="15"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" t="s">
         <v>258</v>
       </c>
@@ -8127,7 +8136,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" t="s">
         <v>46</v>
       </c>
@@ -8135,7 +8144,7 @@
         <v>376</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="G24" s="48"/>
+      <c r="G24" s="49"/>
       <c r="H24" t="s">
         <v>259</v>
       </c>
@@ -8153,7 +8162,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -8161,7 +8170,7 @@
         <v>377</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="49"/>
       <c r="H25" t="s">
         <v>260</v>
       </c>
@@ -8176,7 +8185,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="48"/>
+      <c r="B26" s="49"/>
       <c r="C26" t="s">
         <v>55</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>378</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="49"/>
       <c r="H26" t="s">
         <v>261</v>
       </c>
@@ -8202,13 +8211,13 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
-      <c r="G27" s="48"/>
+      <c r="G27" s="49"/>
       <c r="H27" t="s">
         <v>262</v>
       </c>
@@ -8226,15 +8235,15 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
+      <c r="B28" s="49"/>
       <c r="C28" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>116</v>
+        <v>459</v>
       </c>
       <c r="E28" s="15"/>
-      <c r="G28" s="48"/>
+      <c r="G28" s="49"/>
       <c r="H28" t="s">
         <v>263</v>
       </c>
@@ -8252,7 +8261,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" t="s">
         <v>62</v>
       </c>
@@ -8271,7 +8280,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
+      <c r="B30" s="49"/>
       <c r="C30" t="s">
         <v>61</v>
       </c>
@@ -8287,7 +8296,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
+      <c r="B31" s="49"/>
       <c r="C31" t="s">
         <v>53</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>378</v>
       </c>
       <c r="E31" s="15"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="48" t="s">
         <v>264</v>
       </c>
       <c r="H31" t="s">
@@ -8312,7 +8321,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="48"/>
+      <c r="B32" s="49"/>
       <c r="C32" t="s">
         <v>236</v>
       </c>
@@ -8320,7 +8329,7 @@
         <v>396</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="G32" s="48"/>
+      <c r="G32" s="49"/>
       <c r="H32" t="s">
         <v>266</v>
       </c>
@@ -8338,15 +8347,15 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="42" t="s">
         <v>397</v>
       </c>
       <c r="E33" s="15"/>
-      <c r="G33" s="48"/>
+      <c r="G33" s="49"/>
       <c r="H33" t="s">
         <v>267</v>
       </c>
@@ -8364,14 +8373,14 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" t="s">
         <v>268</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>454</v>
       </c>
-      <c r="G34" s="48"/>
+      <c r="G34" s="49"/>
       <c r="H34" t="s">
         <v>269</v>
       </c>
@@ -8389,16 +8398,14 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>452</v>
-      </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="48"/>
+      <c r="G35" s="49"/>
       <c r="H35" t="s">
         <v>271</v>
       </c>
@@ -8414,22 +8421,20 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="48"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>455</v>
-      </c>
+      <c r="D36" s="35"/>
       <c r="E36" s="15"/>
-      <c r="G36" s="48"/>
+      <c r="G36" s="49"/>
       <c r="H36" t="s">
         <v>273</v>
       </c>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G37" s="48"/>
+      <c r="G37" s="49"/>
       <c r="H37" t="s">
         <v>274</v>
       </c>
@@ -8443,7 +8448,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="48"/>
+      <c r="G38" s="49"/>
       <c r="H38" t="s">
         <v>275</v>
       </c>
@@ -8457,7 +8462,7 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="48" t="s">
         <v>276</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -8467,7 +8472,7 @@
         <v>167</v>
       </c>
       <c r="E39" s="15"/>
-      <c r="G39" s="48"/>
+      <c r="G39" s="49"/>
       <c r="H39" t="s">
         <v>277</v>
       </c>
@@ -8480,7 +8485,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="48"/>
+      <c r="B40" s="49"/>
       <c r="C40" t="s">
         <v>64</v>
       </c>
@@ -8488,7 +8493,7 @@
         <v>71</v>
       </c>
       <c r="E40" s="15"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="49"/>
       <c r="H40" t="s">
         <v>278</v>
       </c>
@@ -8503,7 +8508,7 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="48"/>
+      <c r="B41" s="49"/>
       <c r="C41" t="s">
         <v>279</v>
       </c>
@@ -8511,7 +8516,7 @@
         <v>71</v>
       </c>
       <c r="E41" s="15"/>
-      <c r="G41" s="48"/>
+      <c r="G41" s="49"/>
       <c r="H41" t="s">
         <v>280</v>
       </c>
@@ -8526,7 +8531,7 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="48"/>
+      <c r="B42" s="49"/>
       <c r="C42" t="s">
         <v>281</v>
       </c>
@@ -8534,7 +8539,7 @@
         <v>456</v>
       </c>
       <c r="E42" s="15"/>
-      <c r="G42" s="48"/>
+      <c r="G42" s="49"/>
       <c r="H42" t="s">
         <v>282</v>
       </c>
@@ -8549,7 +8554,7 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="48"/>
+      <c r="B43" s="49"/>
       <c r="C43" t="s">
         <v>283</v>
       </c>
@@ -8568,7 +8573,7 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="48"/>
+      <c r="B44" s="49"/>
       <c r="C44" t="s">
         <v>284</v>
       </c>
@@ -8587,7 +8592,7 @@
       </c>
     </row>
     <row r="45" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="48"/>
+      <c r="B45" s="49"/>
       <c r="C45" t="s">
         <v>285</v>
       </c>
@@ -8595,7 +8600,7 @@
         <v>71</v>
       </c>
       <c r="E45" s="15"/>
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="48" t="s">
         <v>286</v>
       </c>
       <c r="H45" t="s">
@@ -8615,7 +8620,7 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="48"/>
+      <c r="B46" s="49"/>
       <c r="C46" t="s">
         <v>287</v>
       </c>
@@ -8623,7 +8628,7 @@
         <v>71</v>
       </c>
       <c r="E46" s="15"/>
-      <c r="G46" s="47"/>
+      <c r="G46" s="48"/>
       <c r="H46" t="s">
         <v>26</v>
       </c>
@@ -8641,7 +8646,7 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
+      <c r="B47" s="49"/>
       <c r="C47" t="s">
         <v>288</v>
       </c>
@@ -8649,7 +8654,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="15"/>
-      <c r="G47" s="47"/>
+      <c r="G47" s="48"/>
       <c r="H47" t="s">
         <v>73</v>
       </c>
@@ -8665,7 +8670,7 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="48"/>
+      <c r="B48" s="49"/>
       <c r="C48" t="s">
         <v>289</v>
       </c>
@@ -8673,7 +8678,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="15"/>
-      <c r="G48" s="47"/>
+      <c r="G48" s="48"/>
       <c r="H48" t="s">
         <v>230</v>
       </c>
@@ -8688,7 +8693,7 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="48"/>
+      <c r="B49" s="49"/>
       <c r="C49" t="s">
         <v>290</v>
       </c>
@@ -8696,7 +8701,7 @@
         <v>71</v>
       </c>
       <c r="E49" s="15"/>
-      <c r="G49" s="47"/>
+      <c r="G49" s="48"/>
       <c r="H49" t="s">
         <v>129</v>
       </c>
@@ -8714,7 +8719,7 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="48"/>
+      <c r="B50" s="49"/>
       <c r="C50" t="s">
         <v>291</v>
       </c>
@@ -8722,7 +8727,7 @@
         <v>71</v>
       </c>
       <c r="E50" s="15"/>
-      <c r="G50" s="47"/>
+      <c r="G50" s="48"/>
       <c r="H50" t="s">
         <v>184</v>
       </c>
@@ -8740,7 +8745,7 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="48"/>
+      <c r="B51" s="49"/>
       <c r="C51" t="s">
         <v>292</v>
       </c>
@@ -8748,7 +8753,7 @@
         <v>71</v>
       </c>
       <c r="E51" s="15"/>
-      <c r="G51" s="47"/>
+      <c r="G51" s="48"/>
       <c r="H51" t="s">
         <v>57</v>
       </c>
@@ -8766,7 +8771,7 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="48"/>
+      <c r="B52" s="49"/>
       <c r="C52" t="s">
         <v>293</v>
       </c>
@@ -8774,7 +8779,7 @@
         <v>71</v>
       </c>
       <c r="E52" s="15"/>
-      <c r="G52" s="47"/>
+      <c r="G52" s="48"/>
       <c r="H52" t="s">
         <v>60</v>
       </c>
@@ -8792,7 +8797,7 @@
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="48"/>
+      <c r="B53" s="49"/>
       <c r="C53" t="s">
         <v>294</v>
       </c>
@@ -8800,7 +8805,7 @@
         <v>71</v>
       </c>
       <c r="E53" s="15"/>
-      <c r="G53" s="47"/>
+      <c r="G53" s="48"/>
       <c r="H53" t="s">
         <v>58</v>
       </c>
@@ -8818,7 +8823,7 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="48"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="34" t="s">
         <v>295</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>71</v>
       </c>
       <c r="E54" s="15"/>
-      <c r="G54" s="47"/>
+      <c r="G54" s="48"/>
       <c r="H54" t="s">
         <v>59</v>
       </c>
@@ -8844,7 +8849,7 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G55" s="47"/>
+      <c r="G55" s="48"/>
       <c r="H55" t="s">
         <v>28</v>
       </c>
@@ -8862,7 +8867,7 @@
       </c>
     </row>
     <row r="56" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="47"/>
+      <c r="G56" s="48"/>
       <c r="H56" t="s">
         <v>45</v>
       </c>
@@ -8880,16 +8885,16 @@
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="48" t="s">
         <v>296</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="47"/>
+      <c r="G57" s="48"/>
       <c r="H57" t="s">
         <v>128</v>
       </c>
@@ -8907,14 +8912,14 @@
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="48"/>
+      <c r="B58" s="49"/>
       <c r="C58" t="s">
         <v>298</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G58" s="47"/>
+      <c r="G58" s="48"/>
       <c r="H58" t="s">
         <v>231</v>
       </c>
@@ -8932,14 +8937,14 @@
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="48"/>
+      <c r="B59" s="49"/>
       <c r="C59" t="s">
         <v>299</v>
       </c>
-      <c r="D59" t="s">
-        <v>196</v>
-      </c>
-      <c r="G59" s="47"/>
+      <c r="D59" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G59" s="48"/>
       <c r="H59" t="s">
         <v>93</v>
       </c>
@@ -8948,101 +8953,87 @@
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="48"/>
+      <c r="B60" s="49"/>
       <c r="C60" t="s">
         <v>300</v>
       </c>
-      <c r="D60" t="s">
-        <v>203</v>
-      </c>
-      <c r="G60" s="47"/>
+      <c r="D60" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G60" s="48"/>
       <c r="H60" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="48"/>
+      <c r="B61" s="49"/>
       <c r="C61" t="s">
         <v>301</v>
       </c>
-      <c r="D61" t="s">
-        <v>220</v>
+      <c r="D61" s="17" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="48"/>
+      <c r="B62" s="49"/>
       <c r="C62" t="s">
         <v>302</v>
       </c>
-      <c r="D62" t="s">
-        <v>221</v>
+      <c r="D62" s="14" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="48"/>
+      <c r="B63" s="49"/>
       <c r="C63" t="s">
         <v>303</v>
       </c>
-      <c r="D63" t="s">
-        <v>222</v>
-      </c>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="48"/>
+      <c r="B64" s="49"/>
       <c r="C64" t="s">
         <v>304</v>
       </c>
-      <c r="D64" t="s">
-        <v>223</v>
-      </c>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="48"/>
+      <c r="B65" s="49"/>
       <c r="C65" t="s">
         <v>305</v>
       </c>
-      <c r="D65" t="s">
-        <v>224</v>
-      </c>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="48"/>
+      <c r="B66" s="49"/>
       <c r="C66" t="s">
         <v>306</v>
       </c>
-      <c r="D66" t="s">
-        <v>225</v>
-      </c>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="48"/>
+      <c r="B67" s="49"/>
       <c r="C67" t="s">
         <v>307</v>
       </c>
-      <c r="D67" t="s">
-        <v>226</v>
-      </c>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="48"/>
+      <c r="B68" s="49"/>
       <c r="C68" t="s">
         <v>308</v>
       </c>
-      <c r="D68" t="s">
-        <v>227</v>
-      </c>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="48"/>
+      <c r="B69" s="49"/>
       <c r="C69" t="s">
         <v>309</v>
       </c>
-      <c r="D69" t="s">
-        <v>228</v>
-      </c>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="48"/>
+      <c r="B70" s="49"/>
       <c r="C70" t="s">
         <v>310</v>
       </c>
@@ -9052,7 +9043,7 @@
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="48"/>
+      <c r="B71" s="49"/>
       <c r="C71" t="s">
         <v>311</v>
       </c>
@@ -9062,7 +9053,7 @@
       <c r="E71" s="15"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="48"/>
+      <c r="B72" s="49"/>
       <c r="C72" s="34" t="s">
         <v>312</v>
       </c>
